--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,35 +467,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ガイウス・ユリウス・カエサル</t>
+          <t>ヘンリー・ジキル＆ハイド</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>蓋烏斯·尤利烏斯·愷撒</t>
+          <t>亨利·傑基爾＆海德</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>蓋烏斯．尤利烏斯．凱撒</t>
+          <t>亨利．傑基爾＆海德</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -507,51 +507,51 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ジル・ド・レェ</t>
+          <t>ガイウス・ユリウス・カエサル</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>吉爾·德·雷</t>
+          <t>蓋烏斯·尤利烏斯·愷撒</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>吉爾．德．萊斯</t>
+          <t>蓋烏斯．尤利烏斯．凱撒</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ロビンフッド</t>
+          <t>ジル・ド・レェ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>羅賓漢</t>
+          <t>吉爾·德·雷</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>羅賓漢</t>
+          <t>吉爾．德．萊斯</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -563,26 +563,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>エウリュアレ</t>
+          <t>ロビンフッド</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>尤瑞艾莉</t>
+          <t>羅賓漢</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>尤瑞艾莉</t>
+          <t>羅賓漢</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -591,54 +591,54 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>アーラシュ</t>
+          <t>エウリュアレ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>阿拉什</t>
+          <t>尤瑞艾莉</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>阿拉什</t>
+          <t>尤瑞艾莉</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>クー・フーリン</t>
+          <t>アーラシュ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>庫·丘林</t>
+          <t>阿拉什</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>庫．夫林</t>
+          <t>阿拉什</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -647,26 +647,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>武蔵坊弁慶</t>
+          <t>クー・フーリン</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>武藏坊弁慶</t>
+          <t>庫·丘林</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>武藏坊弁慶</t>
+          <t>庫．夫林</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -675,26 +675,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>クー・フーリン〔プロトタイプ〕</t>
+          <t>武蔵坊弁慶</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>庫·丘林〔Prototype〕</t>
+          <t>武藏坊弁慶</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>庫．夫林〔Prototype〕</t>
+          <t>武藏坊弁慶</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -703,26 +703,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>レオニダス一世</t>
+          <t>クー・フーリン〔プロトタイプ〕</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>列奧尼達一世</t>
+          <t>庫·丘林〔Prototype〕</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>列奧尼達一世</t>
+          <t>庫．夫林〔Prototype〕</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -731,54 +731,54 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ロムルス</t>
+          <t>レオニダス一世</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>羅穆路斯</t>
+          <t>列奧尼達一世</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>羅慕路斯</t>
+          <t>列奧尼達一世</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>メドゥーサ</t>
+          <t>ロムルス</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>歌果</t>
+          <t>羅穆路斯</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>美杜莎</t>
+          <t>羅慕路斯</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -787,23 +787,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ゲオルギウス</t>
+          <t>メドゥーサ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>喬爾喬斯</t>
+          <t>歌果</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>聖喬治</t>
+          <t>美杜莎</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -815,26 +815,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>エドワード・ティーチ</t>
+          <t>ゲオルギウス</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>愛迪·薩奇</t>
+          <t>喬爾喬斯</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>愛德華．蒂奇</t>
+          <t>聖喬治</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -843,23 +843,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ブーディカ</t>
+          <t>エドワード・ティーチ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>布狄卡</t>
+          <t>愛迪·薩奇</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>布狄卡</t>
+          <t>愛德華．蒂奇</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -871,23 +871,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>牛若丸</t>
+          <t>ブーディカ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>牛若丸</t>
+          <t>布狄卡</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>牛若丸</t>
+          <t>布狄卡</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -899,51 +899,51 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>アレキサンダー</t>
+          <t>牛若丸</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>亞歷山大</t>
+          <t>牛若丸</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>亞歷山大</t>
+          <t>牛若丸</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>メディア</t>
+          <t>アレキサンダー</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>美狄亞</t>
+          <t>亞歷山大</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>美狄亞</t>
+          <t>亞歷山大</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -955,26 +955,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ジル・ド・レェ</t>
+          <t>メディア</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>吉爾·德·雷</t>
+          <t>美狄亞</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>吉爾．德．萊斯</t>
+          <t>美狄亞</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -983,23 +983,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ハンス・クリスチャン・アンデルセン</t>
+          <t>ジル・ド・レェ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>漢斯·克里斯蒂安·安徒生</t>
+          <t>吉爾·德·雷</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>漢斯．克里斯蒂安．安徒生</t>
+          <t>吉爾．德．萊斯</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -1011,26 +1011,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ウィリアム・シェイクスピア</t>
+          <t>ハンス・クリスチャン・アンデルセン</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>威廉·莎士比亞</t>
+          <t>漢斯·克里斯蒂安·安徒生</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>威廉．莎士比亞</t>
+          <t>漢斯．克里斯蒂安．安徒生</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1039,26 +1039,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>メフィストフェレス</t>
+          <t>ウィリアム・シェイクスピア</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>梅菲斯托費勒斯</t>
+          <t>威廉·莎士比亞</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>梅菲斯托費勒斯</t>
+          <t>威廉．莎士比亞</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1067,26 +1067,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ヴォルフガング・アマデウス・モーツァルト</t>
+          <t>メフィストフェレス</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>沃爾夫岡·阿馬德烏斯·莫扎特</t>
+          <t>梅菲斯托費勒斯</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>沃夫岡．阿瑪迪斯．莫札特</t>
+          <t>梅菲斯托費勒斯</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1095,54 +1095,54 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>クー・フーリン</t>
+          <t>ヴォルフガング・アマデウス・モーツァルト</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>庫·丘林</t>
+          <t>沃爾夫岡·阿馬德烏斯·莫扎特</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>庫．夫林</t>
+          <t>沃夫岡．阿瑪迪斯．莫札特</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>佐々木小次郎</t>
+          <t>クー・フーリン</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>佐佐木小次郎</t>
+          <t>庫·丘林</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>佐佐木小次郎</t>
+          <t>庫．夫林</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1151,26 +1151,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>呪腕のハサン</t>
+          <t>佐々木小次郎</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>咒腕哈桑</t>
+          <t>佐佐木小次郎</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>咒腕的哈桑</t>
+          <t>佐佐木小次郎</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1179,26 +1179,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>荊軻</t>
+          <t>呪腕のハサン</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>匕見</t>
+          <t>咒腕哈桑</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>荊軻</t>
+          <t>咒腕的哈桑</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1207,23 +1207,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>シャルル＝アンリ・サンソン</t>
+          <t>荊軻</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>夏爾·亨利·桑松</t>
+          <t>匕見</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>夏爾．亨利．桑松</t>
+          <t>荊軻</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
@@ -1235,26 +1235,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ファントム・オブ・ジ・オペラ</t>
+          <t>シャルル＝アンリ・サンソン</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>劇院魅影</t>
+          <t>夏爾·亨利·桑松</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>歌劇魅影</t>
+          <t>夏爾．亨利．桑松</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1263,54 +1263,54 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>マタ・ハリ</t>
+          <t>ファントム・オブ・ジ・オペラ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>瑪塔·哈麗</t>
+          <t>劇院魅影</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>瑪塔．哈里</t>
+          <t>歌劇魅影</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>呂布奉先</t>
+          <t>マタ・ハリ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>虎狼</t>
+          <t>瑪塔·哈麗</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>呂布奉先</t>
+          <t>瑪塔．哈里</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1319,23 +1319,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>スパルタクス</t>
+          <t>呂布奉先</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>斯巴達克斯</t>
+          <t>虎狼</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>斯巴達克斯</t>
+          <t>呂布奉先</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1347,26 +1347,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>アステリオス</t>
+          <t>スパルタクス</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>阿斯忒裏俄斯</t>
+          <t>斯巴達克斯</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>阿斯忒里翁</t>
+          <t>斯巴達克斯</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1375,26 +1375,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>カリギュラ</t>
+          <t>アステリオス</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>卡利古拉</t>
+          <t>阿斯忒裏俄斯</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>卡利古拉</t>
+          <t>阿斯忒里翁</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1403,23 +1403,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ダレイオス三世</t>
+          <t>カリギュラ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大流士三世</t>
+          <t>卡利古拉</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>大流士三世</t>
+          <t>卡利古拉</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -1431,26 +1431,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>清姫</t>
+          <t>ダレイオス三世</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>清姬</t>
+          <t>大流士三世</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>清姬</t>
+          <t>大流士三世</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1459,79 +1459,79 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>エイリーク・ブラッドアクス</t>
+          <t>清姫</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>血斧埃裏克</t>
+          <t>清姬</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>血斧埃里克</t>
+          <t>清姬</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ダビデ</t>
+          <t>エイリーク・ブラッドアクス</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>大衛</t>
+          <t>血斧埃裏克</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>大衛</t>
+          <t>血斧埃里克</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ヘクトール</t>
+          <t>ダビデ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>赫克託耳</t>
+          <t>大衛</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>赫克特</t>
+          <t>大衛</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
@@ -1543,79 +1543,79 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ディルムッド・オディナ</t>
+          <t>ヘクトール</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>迪爾姆德·奧迪那</t>
+          <t>赫克託耳</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>迪爾姆德．奧德利暗</t>
+          <t>赫克特</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>フェルグス・マック・ロイ</t>
+          <t>ディルムッド・オディナ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>弗格斯·馬克·羅伊</t>
+          <t>迪爾姆德·奧迪那</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>弗格斯．馬克．羅伊</t>
+          <t>迪爾姆德．奧德利暗</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ヴァン・ホーエンハイム・パラケルスス</t>
+          <t>フェルグス・マック・ロイ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>馮·霍恩海姆·帕拉塞爾蘇斯</t>
+          <t>弗格斯·馬克·羅伊</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>馮．霍恩海姆．帕拉塞爾斯</t>
+          <t>弗格斯．馬克．羅伊</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
@@ -1627,191 +1627,191 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>チャールズ・バベッジ</t>
+          <t>ヴァン・ホーエンハイム・パラケルスス</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>查爾斯·巴貝奇</t>
+          <t>馮·霍恩海姆·帕拉塞爾蘇斯</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>查爾斯．巴貝奇</t>
+          <t>馮．霍恩海姆．帕拉塞爾斯</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ヘンリー・ジキル＆ハイド</t>
+          <t>チャールズ・バベッジ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>亨利·傑基爾＆海德</t>
+          <t>查爾斯·巴貝奇</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>亨利．傑基爾＆海德</t>
+          <t>查爾斯．巴貝奇</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>子ギル</t>
+          <t>ヘンリー・ジキル＆ハイド</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>幼吉爾</t>
+          <t>亨利·傑基爾＆海德</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>子吉爾</t>
+          <t>亨利．傑基爾＆海德</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ジェロニモ</t>
+          <t>子ギル</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>傑羅尼莫</t>
+          <t>幼吉爾</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>傑羅尼莫</t>
+          <t>子吉爾</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ビリー・ザ・キッド</t>
+          <t>ジェロニモ</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>比利小子</t>
+          <t>傑羅尼莫</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>比利小子</t>
+          <t>傑羅尼莫</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>アンリマユ</t>
+          <t>ビリー・ザ・キッド</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>安哥拉曼紐</t>
+          <t>比利小子</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>安格拉曼紐</t>
+          <t>比利小子</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>百貌のハサン</t>
+          <t>アンリマユ</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>百貌哈桑</t>
+          <t>安哥拉曼紐</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>百貌的哈桑</t>
+          <t>安格拉曼紐</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -1823,23 +1823,23 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>風魔小太郎</t>
+          <t>百貌のハサン</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>風魔小太郎</t>
+          <t>百貌哈桑</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>風魔小太郎</t>
+          <t>百貌的哈桑</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -1851,751 +1851,823 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>静謐のハサン</t>
+          <t>風魔小太郎</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>靜謐哈桑</t>
+          <t>風魔小太郎</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>靜謐的哈桑</t>
+          <t>風魔小太郎</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>俵藤太</t>
+          <t>静謐のハサン</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>俵藤太</t>
+          <t>靜謐哈桑</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>俵藤太</t>
+          <t>靜謐的哈桑</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ベディヴィエール</t>
+          <t>俵藤太</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>貝德維爾</t>
+          <t>俵藤太</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>貝德維爾</t>
+          <t>俵藤太</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ジャガーマン</t>
+          <t>ベディヴィエール</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>豹人</t>
+          <t>貝德維爾</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>豹人</t>
+          <t>貝德維爾</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>クリストファー・コロンブス</t>
+          <t>ジャガーマン</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>克里斯托弗·哥倫布</t>
+          <t>豹人</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>克里斯多福．哥倫布</t>
+          <t>豹人</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ポール・バニヤン</t>
+          <t>クリストファー・コロンブス</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>保羅·班揚</t>
+          <t>克里斯托弗·哥倫布</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>保羅．班揚</t>
+          <t>克里斯多福．哥倫布</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>宝蔵院胤舜</t>
+          <t>ポール・バニヤン</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>寶藏院胤舜</t>
+          <t>保羅·班揚</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>寶藏院胤舜</t>
+          <t>保羅．班揚</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>アヴィケブロン</t>
+          <t>宝蔵院胤舜</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>阿維斯布隆</t>
+          <t>寶藏院胤舜</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>阿維斯布隆</t>
+          <t>寶藏院胤舜</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>アントニオ・サリエリ</t>
+          <t>アヴィケブロン</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>安東尼奧·薩列裏</t>
+          <t>阿維斯布隆</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>安東尼奧．薩里耶利</t>
+          <t>阿維斯布隆</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>岡田以蔵</t>
+          <t>アントニオ・サリエリ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>岡田以藏</t>
+          <t>安東尼奧·薩列裏</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>岡田以藏</t>
+          <t>安東尼奧．薩里耶利</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>赤兎馬</t>
+          <t>岡田以蔵</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>丹駒</t>
+          <t>岡田以藏</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>赤兔馬</t>
+          <t>岡田以藏</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B62" t="n">
         <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ウィリアム・テル</t>
+          <t>赤兎馬</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>威廉·退爾</t>
+          <t>丹駒</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>威廉．泰爾</t>
+          <t>赤兔馬</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>アスクレピオス</t>
+          <t>ウィリアム・テル</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>阿斯克勒庇俄斯</t>
+          <t>威廉·退爾</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>阿斯克勒庇俄斯</t>
+          <t>威廉．泰爾</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>森長可</t>
+          <t>アスクレピオス</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>森長可</t>
+          <t>阿斯克勒庇俄斯</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>森長可</t>
+          <t>阿斯克勒庇俄斯</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>イアソン</t>
+          <t>森長可</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>伊阿宋</t>
+          <t>森長可</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>伊阿宋</t>
+          <t>森長可</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>パリス</t>
+          <t>イアソン</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>帕里斯</t>
+          <t>伊阿宋</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>帕里斯</t>
+          <t>伊阿宋</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B67" t="n">
         <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ガレス</t>
+          <t>パリス</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>加雷斯</t>
+          <t>帕里斯</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>加雷斯</t>
+          <t>帕里斯</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>バーソロミュー・ロバーツ</t>
+          <t>ガレス</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>巴沙洛繆·羅伯茨</t>
+          <t>加雷斯</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>巴索羅繆．羅伯茨</t>
+          <t>加雷斯</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>陳宮</t>
+          <t>バーソロミュー・ロバーツ</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>陳宮</t>
+          <t>巴沙洛繆·羅伯茨</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>陳宮</t>
+          <t>巴索羅繆．羅伯茨</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>シャルロット・コルデー</t>
+          <t>陳宮</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>夏洛特·科黛</t>
+          <t>陳宮</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>夏洛特．科黛</t>
+          <t>陳宮</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>サロメ</t>
+          <t>シャルロット・コルデー</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>莎樂美</t>
+          <t>夏洛特·科黛</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>莎樂美</t>
+          <t>夏洛特．科黛</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>マンドリカルド</t>
+          <t>サロメ</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>曼迪卡爾多</t>
+          <t>莎樂美</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>曼迪卡爾多</t>
+          <t>莎樂美</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>織田信勝</t>
+          <t>マンドリカルド</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>織田信勝</t>
+          <t>曼迪卡爾多</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>織田信勝</t>
+          <t>曼迪卡爾多</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>メアリー・アニング</t>
+          <t>織田信勝</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>瑪麗·安寧</t>
+          <t>織田信勝</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>瑪麗．安寧</t>
+          <t>織田信勝</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>張角</t>
+          <t>メアリー・アニング</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>張角</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>瑪麗·安寧</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>瑪麗．安寧</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B76" t="n">
         <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>徐福</t>
+          <t>張角</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>方巿</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>張角</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>張角</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="B77" t="n">
         <v>3</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>杉谷善住坊</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>徐福</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>方巿</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B78" t="n">
         <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>テセウス</t>
+          <t>杉谷善住坊</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>396</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>テセウス</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>411</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Uolgamarieflarecollection</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ｅ－フレアマリー</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>412</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Uolgamarieaquacollection</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ｅ－アクアマリー</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -2587,7 +2587,11 @@
           <t>方巿</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>徐福</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">

--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -2610,7 +2610,11 @@
           <t>杉谷善住坊</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>杉谷善住坊</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -2630,7 +2634,11 @@
           <t>テセウス</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>忒修斯</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
